--- a/multiplexor ECAD/Project Outputs for Multiplexor/BOM/Bill of Materials-Multiplexor.xlsx
+++ b/multiplexor ECAD/Project Outputs for Multiplexor/BOM/Bill of Materials-Multiplexor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgundersen\Desktop\Projects\Multiplexor Testing Device\multiplexor ECAD\Project Outputs for Multiplexor\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgundersen\Desktop\Projects\I_O_Multiplexor\Multiplexor\multiplexor ECAD\Project Outputs for Multiplexor\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41CD1A4-32ED-48C5-BCDE-861DC48AC97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{141B4F53-52DD-4031-9E51-366B18F6BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38445" yWindow="1500" windowWidth="14400" windowHeight="7440" xr2:uid="{FAC6FADD-BB06-4E38-9286-DC1E674B8757}"/>
+    <workbookView xWindow="32685" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{208D4797-CF34-4291-AD55-BCFD0C60A975}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Multiplexor" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0254117-9F14-461C-8FF0-1D7EEDD449BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D388CE-93BC-4A69-8942-2913BD35ACAD}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
